--- a/biology/Médecine/Centre_hospitalier_de_Lens/Centre_hospitalier_de_Lens.xlsx
+++ b/biology/Médecine/Centre_hospitalier_de_Lens/Centre_hospitalier_de_Lens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre Hospitalier de Lens, dit "Dr Ernest Schaffner" est un établissement de soin situé au cœur de l'agglomération Lens-Liévin.
-Il a été certifié par la Haute Autorité de Santé pour 4 ans en 2016 (Certification V2014[1]). C’est l’hôpital le plus important du Pas-de-Calais en termes d’activité et d'effectifs. Il propose, à quelques exceptions près, l’ensemble des spécialités médicales, chirurgicales et obstétricales. 
+Il a été certifié par la Haute Autorité de Santé pour 4 ans en 2016 (Certification V2014). C’est l’hôpital le plus important du Pas-de-Calais en termes d’activité et d'effectifs. Il propose, à quelques exceptions près, l’ensemble des spécialités médicales, chirurgicales et obstétricales. 
 Il s’appuie sur un plateau technique conséquent et complet (imagerie, labo, blocs opératoires, consultations, ...), une maternité de niveau 3, et certaines activités généralement limitées aux CHU. Il dispose d’un service d’urgences à très forte activité et reconnu comme centre de recours sur le territoire dans plusieurs domaines. 
 Il est l'établissement support du Groupement Hospitalier de Territoire de l'Artois qui comprend également le Centre Hospitalier de Béthune Beuvry, le Centre Hospitalier d'Hénin-Beaumont et le Centre Hospitalier de La Bassée.
 Le 28 avril 1926 était posée la première pierre de l'hôpital. La construction s'acheva en 1934 : la Cité Hospitalière de Lens était créée. Sa capacité d'accueil était de 633 lits. Il n'a cessé de s'agrandir et de s'adapter depuis.
@@ -517,9 +529,11 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La majorité des activités médicales est représentée[2],[3], que ce soit en programmé (à la suite des consultations) ou en urgences. L'accent est mis sur la réduction du temps passé à l'hôpital pour les patients, avec l'hospitalisation de jour (dont la chirurgie ambulatoire) ou le PRADO[4] pour les suites de couche (en lien avec l'assurance maladie).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La majorité des activités médicales est représentée que ce soit en programmé (à la suite des consultations) ou en urgences. L'accent est mis sur la réduction du temps passé à l'hôpital pour les patients, avec l'hospitalisation de jour (dont la chirurgie ambulatoire) ou le PRADO pour les suites de couche (en lien avec l'assurance maladie).
 Le Centre Hospitalier de Lens propose une maternité de niveau 3 qui permet un éventail complet de prise en charge, de la démarche naturelle (salle nature et consultations adaptées) à la prise en charge complexe voire à risque.
 Plusieurs sites détachés dépendent du CHL, comme un EHPAD (Centre Montgré), des unités de santé mentale (psychiatrie adulte et pédopsychiatrie) et d'addictologie.
 Seuls la neurochirurgie et les grands brûlés ne sont pas suivis à l’hôpital de Lens.
@@ -553,21 +567,23 @@
           <t>Chiffres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centre Hospitalier de Lens s'étend sur plus de 12 hectares, soit près de 100 000 m2 entièrement dédiés aux soins. Il comporte 2,9 km de galeries.
 3000 personnes environ y travaillent, dont 2600 personnels paramédicaux, administratifs et techniques et 400 médecins. 74 % sont des femmes, 26 % des hommes.
 Il propose :
 774 lits d'hospitalisation (dont 580 en Médecine / Chirurgie / Obstétrique) et 174 places d'accueil de jour (dont 100 en Médecine / Chirurgie / Obstétrique).
 16 postes d'hémodialyse
-En 2016, le Centre Hospitalier de Lens a été classé (Source : Le Point - Palmarès national des hôpitaux publics 2019[5]) :
+En 2016, le Centre Hospitalier de Lens a été classé (Source : Le Point - Palmarès national des hôpitaux publics 2019) :
 13e établissement en France pour la chirurgie de la rétine
 18e établissement en France pour la chirurgie de la cataracte
 19e établissement en France pour la prise en charge de l'infarctus du myocarde
 24e établissement en France pour les stimulateurs cardiaques
 40e établissement en France pour la pédiatrie
 49e établissement en France pour la prise en charge du Diabète.
-Le Centre Hospitalier de Lens a obtenu un score A agrégé de 89,15 sur 100 pour la lutte contre les infections nosocomiales[3].
+Le Centre Hospitalier de Lens a obtenu un score A agrégé de 89,15 sur 100 pour la lutte contre les infections nosocomiales.
 </t>
         </is>
       </c>
@@ -596,20 +612,125 @@
           <t>Pôles inter-établissements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le Centre Hospitalier de Lens faisant partie du Groupement Hospitalier de Territoire de l'Artois, son organisation est désormais territoriale. Les pôles sont donc des pôles inter-établissements.
-Addictologie
-Addictologie
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre Hospitalier de Lens faisant partie du Groupement Hospitalier de Territoire de l'Artois, son organisation est désormais territoriale. Les pôles sont donc des pôles inter-établissements.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pôles inter-établissements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Addictologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Addictologie
 CSAPA
 Équipe Hospitalière de Liaison en Addictologie
 CeGGID
-CAARUD « Atypik »
-Biologie médicale &amp; Hygiène hospitalière
-Hygiène hospitalière
-Laboratoires
-Cancérologie et Médico-Chirurgical
-Anatomopathologie
+CAARUD « Atypik »</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pôles inter-établissements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biologie médicale &amp; Hygiène hospitalière</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hygiène hospitalière
+Laboratoires</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pôles inter-établissements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cancérologie et Médico-Chirurgical</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Anatomopathologie
 Blocs opératoires CHBB
 Chirurgie gynécologique
 Chirurgie de l’Obésité
@@ -619,29 +740,165 @@
 Hématologie
 Oncologie médicale
 Pneumologie
-Soins palliatifs
-Chirurgie
-Blocs Opératoires CHL
+Soins palliatifs</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pôles inter-établissements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chirurgie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Blocs Opératoires CHL
 Chirurgie endocrinienne
 Chirurgie orthopédique-traumatologique
 Chirurgie vasculaire
 ORL, Stomatologie et odontologie
 Ophtalmologie
-Urologie
-Femme-Mère-Enfant
-Chirurgie pédiatrique
+Urologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pôles inter-établissements</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Femme-Mère-Enfant</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Chirurgie pédiatrique
 Gynécologie-obstétrique
 Orthogénie
 Pédiatrie
 Procréation Médicalement Assistée
 Réanimation et médecine néonatale
 Urgences gynécologiques et obstétriques
-Urgences pédiatriques
-Imagerie médicale et Médecine nucléaire
-Imagerie médicale
-Médecine nucléaire
-MIME (Maladies Inflammatoires Métaboliques et Éducation thérapeutique)
-Dermatologie
+Urgences pédiatriques</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Pôles inter-établissements</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Imagerie médicale et Médecine nucléaire</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Imagerie médicale
+Médecine nucléaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pôles inter-établissements</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MIME (Maladies Inflammatoires Métaboliques et Éducation thérapeutique)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dermatologie
 Éducation thérapeutique du patient
 Endocrinologie et diabétologie
 Infectiologie
@@ -649,20 +906,156 @@
 Néphrologie - Dialyse
 Nutrition et Obésité
 Réhabilitation
-Rhumatologie
-Neuro-Cardio-Vasculaire
-Angiologie
+Rhumatologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pôles inter-établissements</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Neuro-Cardio-Vasculaire</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Angiologie
 Cardiologie
-Neurologie
-Pharmacie et Stérilisation
-Pharmacie
-Stérilisation
-Psychiatrie
-Coordination des pôles de psychiatrie et santé mentale des CH de Lens et d’Hénin-Beaumont
+Neurologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Pôles inter-établissements</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pharmacie et Stérilisation</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Pharmacie
+Stérilisation</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Pôles inter-établissements</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Psychiatrie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Coordination des pôles de psychiatrie et santé mentale des CH de Lens et d’Hénin-Beaumont
 Psychiatrie adulte
-Psychiatrie infanto-juvénile
-Rééducation et Gériatrie
-Consultations
+Psychiatrie infanto-juvénile</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Pôles inter-établissements</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Rééducation et Gériatrie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Consultations
 Court séjour gériatrique
 EHPAD et USLD
 Équipe mobile de gériatrie
@@ -670,15 +1063,83 @@
 Médecine du Sport
 SSR
 Unité post urgences gériatriques
-Rééducation fonctionnelle
-Soins critiques
-Anesthésie
+Rééducation fonctionnelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Pôles inter-établissements</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Soins critiques</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Anesthésie
 Douleur
 Prélèvements Multi Organes
 Réanimation
-Recherche clinique
-URMED
-Médecine légale
+Recherche clinique</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lens</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Pôles inter-établissements</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>URMED</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Médecine légale
 Médecine pénitentiaire
 Médecine polyvalente
 Médecine post-urgences
